--- a/biology/Botanique/Liste_des_genres_d'Apiaceae/Liste_des_genres_d'Apiaceae.xlsx
+++ b/biology/Botanique/Liste_des_genres_d'Apiaceae/Liste_des_genres_d'Apiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Apiaceae</t>
+          <t>Liste_des_genres_d'Apiaceae</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la liste des genres de la famille des Apiaceae.
-Selon Plants of the World online (POWO)                (17 mai 2021)[1], la famille des Apiaceae comporte 1 005 genres décrits dont 441 sont actuellement acceptés.
+Selon Plants of the World online (POWO)                (17 mai 2021), la famille des Apiaceae comporte 1 005 genres décrits dont 441 sont actuellement acceptés.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Apiaceae</t>
+          <t>Liste_des_genres_d'Apiaceae</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste des genres acceptés selon Plants of the World Online</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (17 mai 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (17 mai 2021) :
 Aciphylla J.R.Forst. &amp; G.Forst.
 Acronema Falc. ex Edgew.
 Actinanthus Ehrenb.
@@ -966,7 +980,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_genres_d%27Apiaceae</t>
+          <t>Liste_des_genres_d'Apiaceae</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -984,9 +998,11 @@
           <t>Liste des genres selon Tropicos</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (17 mai 2021)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (17 mai 2021) (Attention liste brute contenant possiblement des synonymes) :
 Abioton Raf.
 Acanthopleura K. Koch
 Aciphylla J.R. Forst. &amp; G. Forst.
